--- a/Code/Results/Cases/Case_7_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.87255031083248</v>
+        <v>12.65505461280149</v>
       </c>
       <c r="C2">
-        <v>13.34895097022527</v>
+        <v>6.838941489954182</v>
       </c>
       <c r="D2">
-        <v>3.509340663884788</v>
+        <v>4.774565550333994</v>
       </c>
       <c r="E2">
-        <v>11.55961702513898</v>
+        <v>14.48618841574073</v>
       </c>
       <c r="F2">
-        <v>29.24854120076013</v>
+        <v>19.22544575779125</v>
       </c>
       <c r="G2">
-        <v>2.06442663407637</v>
+        <v>2.08712021553059</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.36943030642336</v>
+        <v>11.21697275062828</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.59978979943199</v>
+        <v>14.53243415701506</v>
       </c>
       <c r="N2">
-        <v>12.22024291167113</v>
+        <v>12.17881081197634</v>
       </c>
       <c r="O2">
-        <v>22.5922367625496</v>
+        <v>15.46310065874004</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.4704524237302</v>
+        <v>11.82985002307618</v>
       </c>
       <c r="C3">
-        <v>12.44205786647388</v>
+        <v>6.551002941064049</v>
       </c>
       <c r="D3">
-        <v>3.591726495673381</v>
+        <v>4.63697487233161</v>
       </c>
       <c r="E3">
-        <v>10.88125141278273</v>
+        <v>13.61731739777729</v>
       </c>
       <c r="F3">
-        <v>27.91937497125303</v>
+        <v>18.80831788018455</v>
       </c>
       <c r="G3">
-        <v>2.073524948426404</v>
+        <v>2.091864435242519</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.17926698101169</v>
+        <v>10.58548165728495</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.38242008486479</v>
+        <v>13.59222764442194</v>
       </c>
       <c r="N3">
-        <v>12.458141177238</v>
+        <v>12.38717983542856</v>
       </c>
       <c r="O3">
-        <v>21.75291283109199</v>
+        <v>15.36124172141332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.56382979015282</v>
+        <v>11.29393339981555</v>
       </c>
       <c r="C4">
-        <v>11.85643363424418</v>
+        <v>6.367372830105852</v>
       </c>
       <c r="D4">
-        <v>3.642362569471948</v>
+        <v>4.549765885073639</v>
       </c>
       <c r="E4">
-        <v>10.45647985937706</v>
+        <v>13.06754353331281</v>
       </c>
       <c r="F4">
-        <v>27.10457892885728</v>
+        <v>18.56471349482606</v>
       </c>
       <c r="G4">
-        <v>2.079245273699151</v>
+        <v>2.094868582182123</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.41011511449075</v>
+        <v>10.17794495073894</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.5972695008669</v>
+        <v>12.9841191357759</v>
       </c>
       <c r="N4">
-        <v>12.60780349300828</v>
+        <v>12.51787417275011</v>
       </c>
       <c r="O4">
-        <v>21.24728593408497</v>
+        <v>15.31137723345082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.18273060256774</v>
+        <v>11.06816550907713</v>
       </c>
       <c r="C5">
-        <v>11.61046446640442</v>
+        <v>6.290880017331261</v>
       </c>
       <c r="D5">
-        <v>3.663038171114795</v>
+        <v>4.513571371209544</v>
       </c>
       <c r="E5">
-        <v>10.28143604515069</v>
+        <v>12.83961562175214</v>
       </c>
       <c r="F5">
-        <v>26.77322331009558</v>
+        <v>18.46864463429808</v>
       </c>
       <c r="G5">
-        <v>2.081611968101764</v>
+        <v>2.096116249274818</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.08691300841497</v>
+        <v>10.00694134256192</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.26770695397413</v>
+        <v>12.72853218233599</v>
       </c>
       <c r="N5">
-        <v>12.66970305308609</v>
+        <v>12.57184961677583</v>
       </c>
       <c r="O5">
-        <v>21.04383905466626</v>
+        <v>15.29415062647231</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.11874208056932</v>
+        <v>11.03023069749344</v>
       </c>
       <c r="C6">
-        <v>11.56917694498905</v>
+        <v>6.278079899023242</v>
       </c>
       <c r="D6">
-        <v>3.666474596254143</v>
+        <v>4.507522592545801</v>
       </c>
       <c r="E6">
-        <v>10.25225726196563</v>
+        <v>12.80154037178502</v>
       </c>
       <c r="F6">
-        <v>26.71825436657</v>
+        <v>18.45288726651307</v>
       </c>
       <c r="G6">
-        <v>2.082007161107252</v>
+        <v>2.096324854886735</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.03265251803689</v>
+        <v>9.978250386030414</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.21239943517977</v>
+        <v>12.68562178166749</v>
       </c>
       <c r="N6">
-        <v>12.68003671137217</v>
+        <v>12.58085614249542</v>
       </c>
       <c r="O6">
-        <v>21.01021875384005</v>
+        <v>15.29147414748987</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.55873748143944</v>
+        <v>11.29091851646725</v>
       </c>
       <c r="C7">
-        <v>11.85314616069413</v>
+        <v>6.366347869216636</v>
       </c>
       <c r="D7">
-        <v>3.642641206265938</v>
+        <v>4.549280368623639</v>
       </c>
       <c r="E7">
-        <v>10.45412683326732</v>
+        <v>13.06448506286753</v>
       </c>
       <c r="F7">
-        <v>27.10010689270305</v>
+        <v>18.56340484685861</v>
       </c>
       <c r="G7">
-        <v>2.079277045096927</v>
+        <v>2.094885313017525</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.40579598622622</v>
+        <v>10.17565861682876</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.59286397170632</v>
+        <v>12.98070372280477</v>
       </c>
       <c r="N7">
-        <v>12.60863459196782</v>
+        <v>12.51859917302236</v>
       </c>
       <c r="O7">
-        <v>21.24453143259846</v>
+        <v>15.31113251202377</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.39850871071418</v>
+        <v>12.37657539871723</v>
       </c>
       <c r="C8">
-        <v>13.04217603101757</v>
+        <v>6.741109882981457</v>
       </c>
       <c r="D8">
-        <v>3.537754476773542</v>
+        <v>4.727707463778884</v>
       </c>
       <c r="E8">
-        <v>11.32749311489949</v>
+        <v>14.19008804731968</v>
       </c>
       <c r="F8">
-        <v>28.79016191355817</v>
+        <v>19.07905884817542</v>
       </c>
       <c r="G8">
-        <v>2.067537149554684</v>
+        <v>2.088737422803965</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.96695775369627</v>
+        <v>11.00336858868726</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.18777815099197</v>
+        <v>14.21462687102002</v>
       </c>
       <c r="N8">
-        <v>12.30152877687473</v>
+        <v>12.25009929214373</v>
       </c>
       <c r="O8">
-        <v>22.30090758257877</v>
+        <v>15.42529351397827</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.6503944027067</v>
+        <v>14.27496664940308</v>
       </c>
       <c r="C9">
-        <v>15.14970419201082</v>
+        <v>7.419768090646624</v>
       </c>
       <c r="D9">
-        <v>3.331066054753674</v>
+        <v>5.054788069794177</v>
       </c>
       <c r="E9">
-        <v>13.04104915329722</v>
+        <v>16.36176938519081</v>
       </c>
       <c r="F9">
-        <v>32.10287378022813</v>
+        <v>20.1867366038225</v>
       </c>
       <c r="G9">
-        <v>2.045482204715217</v>
+        <v>2.077379784764864</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.72944299130369</v>
+        <v>12.46801484323096</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.02300904871782</v>
+        <v>16.39163105083587</v>
       </c>
       <c r="N9">
-        <v>11.72757224099477</v>
+        <v>11.74429574941507</v>
       </c>
       <c r="O9">
-        <v>24.44403450805849</v>
+        <v>15.7536800958761</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.8329715375245</v>
+        <v>15.53140719097987</v>
       </c>
       <c r="C10">
-        <v>16.56813348274022</v>
+        <v>7.881983663243954</v>
       </c>
       <c r="D10">
-        <v>3.17639907380399</v>
+        <v>5.279805207009898</v>
       </c>
       <c r="E10">
-        <v>14.38580528267927</v>
+        <v>17.96808338466546</v>
       </c>
       <c r="F10">
-        <v>34.52525620367102</v>
+        <v>21.05533959076969</v>
       </c>
       <c r="G10">
-        <v>2.02972070464012</v>
+        <v>2.069424033193356</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.58540818610644</v>
+        <v>13.44651608202066</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.93795102513592</v>
+        <v>17.8462655029579</v>
       </c>
       <c r="N10">
-        <v>11.32310041263913</v>
+        <v>11.38363639710412</v>
       </c>
       <c r="O10">
-        <v>26.05733654164814</v>
+        <v>16.06362324565714</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.78354863932181</v>
+        <v>16.0735214117892</v>
       </c>
       <c r="C11">
-        <v>17.18688565456168</v>
+        <v>8.084061696444417</v>
       </c>
       <c r="D11">
-        <v>3.104860723484351</v>
+        <v>5.378609630055139</v>
       </c>
       <c r="E11">
-        <v>14.97794859436366</v>
+        <v>18.66876449082727</v>
       </c>
       <c r="F11">
-        <v>35.6241568822768</v>
+        <v>21.46152339651658</v>
       </c>
       <c r="G11">
-        <v>2.022609317198998</v>
+        <v>2.065880432260231</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.39416767239764</v>
+        <v>13.87048439754465</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.77514681409901</v>
+        <v>18.47741138408027</v>
       </c>
       <c r="N11">
-        <v>11.14295069766651</v>
+        <v>11.22154629673394</v>
       </c>
       <c r="O11">
-        <v>26.79951874769965</v>
+        <v>16.22048024291331</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.13765695056845</v>
+        <v>16.27462044398026</v>
       </c>
       <c r="C12">
-        <v>17.4175391221927</v>
+        <v>8.159390119362948</v>
       </c>
       <c r="D12">
-        <v>3.077547134526903</v>
+        <v>5.41549561498776</v>
       </c>
       <c r="E12">
-        <v>15.19957081873333</v>
+        <v>18.9298877422878</v>
       </c>
       <c r="F12">
-        <v>36.03990054198304</v>
+        <v>21.61685561896061</v>
       </c>
       <c r="G12">
-        <v>2.019921348840213</v>
+        <v>2.064548654752502</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.69551202853915</v>
+        <v>14.02799846808266</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.08753003692128</v>
+        <v>18.71209043193796</v>
       </c>
       <c r="N12">
-        <v>11.07530827610613</v>
+        <v>11.16041651742589</v>
       </c>
       <c r="O12">
-        <v>27.08180687121615</v>
+        <v>16.28222825180771</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.06164992910019</v>
+        <v>16.23149565054128</v>
       </c>
       <c r="C13">
-        <v>17.36802363299614</v>
+        <v>8.143220113538478</v>
       </c>
       <c r="D13">
-        <v>3.083440483082356</v>
+        <v>5.407575347701048</v>
       </c>
       <c r="E13">
-        <v>15.15195297736881</v>
+        <v>18.87383552489349</v>
       </c>
       <c r="F13">
-        <v>35.95037809498491</v>
+        <v>21.58333551348258</v>
       </c>
       <c r="G13">
-        <v>2.02050008997444</v>
+        <v>2.064835039847212</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.63082743560888</v>
+        <v>13.99420969609439</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.02045529965644</v>
+        <v>18.66173906975303</v>
       </c>
       <c r="N13">
-        <v>11.08985015155702</v>
+        <v>11.17357134317667</v>
       </c>
       <c r="O13">
-        <v>27.02095453014966</v>
+        <v>16.26882416467715</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.81279730167557</v>
+        <v>16.09014960328929</v>
       </c>
       <c r="C14">
-        <v>17.20593393997515</v>
+        <v>8.090283019915796</v>
       </c>
       <c r="D14">
-        <v>3.10261843296953</v>
+        <v>5.381654959479234</v>
       </c>
       <c r="E14">
-        <v>14.99623260404501</v>
+        <v>18.69033095226492</v>
       </c>
       <c r="F14">
-        <v>35.65836748540301</v>
+        <v>21.47427259940394</v>
       </c>
       <c r="G14">
-        <v>2.022388098351371</v>
+        <v>2.065770668040921</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.41905678190722</v>
+        <v>13.88350389567388</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.8009384271945</v>
+        <v>18.49680474225107</v>
       </c>
       <c r="N14">
-        <v>11.13737398890741</v>
+        <v>11.21651229994443</v>
       </c>
       <c r="O14">
-        <v>26.82271742658856</v>
+        <v>16.22551282038164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.65961253831889</v>
+        <v>16.00302712056965</v>
       </c>
       <c r="C15">
-        <v>17.10617832347591</v>
+        <v>8.057701605466889</v>
       </c>
       <c r="D15">
-        <v>3.11433464459935</v>
+        <v>5.36570858245242</v>
       </c>
       <c r="E15">
-        <v>14.90051614801128</v>
+        <v>18.57738435992406</v>
       </c>
       <c r="F15">
-        <v>35.4794553393765</v>
+        <v>21.40766430867725</v>
       </c>
       <c r="G15">
-        <v>2.023545094012378</v>
+        <v>2.066345060438855</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.28870711812788</v>
+        <v>13.81529872434177</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.66588049577451</v>
+        <v>18.39521715650504</v>
       </c>
       <c r="N15">
-        <v>11.16655965873884</v>
+        <v>11.24284641999424</v>
       </c>
       <c r="O15">
-        <v>26.70145537751969</v>
+        <v>16.1992913292275</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.77001699769527</v>
+        <v>15.49539011472725</v>
       </c>
       <c r="C16">
-        <v>16.52717628471565</v>
+        <v>7.868611074458457</v>
       </c>
       <c r="D16">
-        <v>3.18104608232676</v>
+        <v>5.273274973981419</v>
       </c>
       <c r="E16">
-        <v>14.34673024715196</v>
+        <v>17.92169692571518</v>
       </c>
       <c r="F16">
-        <v>34.45338154315667</v>
+        <v>21.02901077532177</v>
       </c>
       <c r="G16">
-        <v>2.030186342479297</v>
+        <v>2.069657072242439</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.53185502700896</v>
+        <v>13.41838361263489</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.88257508591517</v>
+        <v>17.80440959169508</v>
       </c>
       <c r="N16">
-        <v>11.33495275415015</v>
+        <v>11.3942662750414</v>
       </c>
       <c r="O16">
-        <v>26.00900272642345</v>
+        <v>16.05369743927934</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.2136022542847</v>
+        <v>15.17646134549604</v>
       </c>
       <c r="C17">
-        <v>16.16529589170738</v>
+        <v>7.750499498802601</v>
       </c>
       <c r="D17">
-        <v>3.221633018824594</v>
+        <v>5.215645683980456</v>
       </c>
       <c r="E17">
-        <v>14.00212222047331</v>
+        <v>17.51183506961298</v>
       </c>
       <c r="F17">
-        <v>33.82314654763811</v>
+        <v>20.79949787575522</v>
       </c>
       <c r="G17">
-        <v>2.034273199500868</v>
+        <v>2.071707705385525</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.05858268653392</v>
+        <v>13.16947421058164</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.39351262042343</v>
+        <v>17.43418805778166</v>
       </c>
       <c r="N17">
-        <v>11.43925475991734</v>
+        <v>11.48764003544222</v>
       </c>
       <c r="O17">
-        <v>25.58634373497938</v>
+        <v>15.96849338714282</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.88957208530483</v>
+        <v>14.99024728906864</v>
       </c>
       <c r="C18">
-        <v>15.95464738471554</v>
+        <v>7.681794944337986</v>
       </c>
       <c r="D18">
-        <v>3.244870136475593</v>
+        <v>5.182164947777497</v>
       </c>
       <c r="E18">
-        <v>13.80205472067365</v>
+        <v>17.27325867397829</v>
       </c>
       <c r="F18">
-        <v>33.4603561520468</v>
+        <v>20.66853225244163</v>
       </c>
       <c r="G18">
-        <v>2.036629596960588</v>
+        <v>2.072894330544358</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.78301214303195</v>
+        <v>13.02431570940118</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.10900864828493</v>
+        <v>17.21836369533844</v>
       </c>
       <c r="N18">
-        <v>11.499606588983</v>
+        <v>11.54153426258921</v>
       </c>
       <c r="O18">
-        <v>25.34401483103753</v>
+        <v>15.92097552153239</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.77916832423327</v>
+        <v>14.92672049018957</v>
       </c>
       <c r="C19">
-        <v>15.88289080555992</v>
+        <v>7.658401147049086</v>
       </c>
       <c r="D19">
-        <v>3.252720909780858</v>
+        <v>5.170772172057309</v>
       </c>
       <c r="E19">
-        <v>13.73399025661483</v>
+        <v>17.19199076656184</v>
       </c>
       <c r="F19">
-        <v>33.33747055201769</v>
+        <v>20.62437111511138</v>
       </c>
       <c r="G19">
-        <v>2.037428518593302</v>
+        <v>2.073297352427162</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.68912657845814</v>
+        <v>12.97482519051941</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.01212279030216</v>
+        <v>17.1447920134623</v>
       </c>
       <c r="N19">
-        <v>11.52010199526056</v>
+        <v>11.55981522707989</v>
       </c>
       <c r="O19">
-        <v>25.26209869728672</v>
+        <v>15.90514039946981</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.27324546333782</v>
+        <v>15.2106986970709</v>
       </c>
       <c r="C20">
-        <v>16.20407680748498</v>
+        <v>7.763152501237222</v>
       </c>
       <c r="D20">
-        <v>3.217323956034726</v>
+        <v>5.221815111439424</v>
       </c>
       <c r="E20">
-        <v>14.03899721312825</v>
+        <v>17.55575818106021</v>
       </c>
       <c r="F20">
-        <v>33.89026665822507</v>
+        <v>20.82382238203767</v>
       </c>
       <c r="G20">
-        <v>2.033837575800652</v>
+        <v>2.071488676731008</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.10930941317569</v>
+        <v>13.19617720594718</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.44590458102798</v>
+        <v>17.47389660723044</v>
       </c>
       <c r="N20">
-        <v>11.42811423444439</v>
+        <v>11.4776810091066</v>
       </c>
       <c r="O20">
-        <v>25.63125629470964</v>
+        <v>15.97740885991808</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.88604832736875</v>
+        <v>16.13177963428917</v>
       </c>
       <c r="C21">
-        <v>17.25364146386626</v>
+        <v>8.105864442415653</v>
       </c>
       <c r="D21">
-        <v>3.096991936918281</v>
+        <v>5.389282895209801</v>
       </c>
       <c r="E21">
-        <v>15.04204048887206</v>
+        <v>18.74434400536024</v>
       </c>
       <c r="F21">
-        <v>35.74414770037725</v>
+        <v>21.50626631133953</v>
       </c>
       <c r="G21">
-        <v>2.021833439598155</v>
+        <v>2.065495583289574</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.48139071131052</v>
+        <v>13.91610309648778</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.86553992058433</v>
+        <v>18.54536662702906</v>
       </c>
       <c r="N21">
-        <v>11.12339920014095</v>
+        <v>11.20389298984199</v>
       </c>
       <c r="O21">
-        <v>26.88091014251345</v>
+        <v>16.23817011754447</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.90610498917648</v>
+        <v>16.70937305248403</v>
       </c>
       <c r="C22">
-        <v>17.91837685560097</v>
+        <v>8.322882314285806</v>
       </c>
       <c r="D22">
-        <v>3.017014522151729</v>
+        <v>5.495642072783764</v>
       </c>
       <c r="E22">
-        <v>15.68249262905828</v>
+        <v>19.49667646065176</v>
       </c>
       <c r="F22">
-        <v>36.95360360589696</v>
+        <v>21.96111137033925</v>
       </c>
       <c r="G22">
-        <v>2.014015033380443</v>
+        <v>2.061637277329541</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.34958017128677</v>
+        <v>14.36894352424022</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.76640883126665</v>
+        <v>19.22048077873758</v>
       </c>
       <c r="N22">
-        <v>10.92762962931935</v>
+        <v>11.02639786938241</v>
       </c>
       <c r="O22">
-        <v>27.70492336792369</v>
+        <v>16.42231723857678</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.36471202514808</v>
+        <v>16.40331572105155</v>
       </c>
       <c r="C23">
-        <v>17.56547999907552</v>
+        <v>8.207697126344565</v>
       </c>
       <c r="D23">
-        <v>3.05984171737672</v>
+        <v>5.439164241659557</v>
       </c>
       <c r="E23">
-        <v>15.34197670221037</v>
+        <v>19.09734287763812</v>
       </c>
       <c r="F23">
-        <v>36.30825143313812</v>
+        <v>21.71756531117561</v>
       </c>
       <c r="G23">
-        <v>2.018186650568577</v>
+        <v>2.063691434192656</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.88875350842363</v>
+        <v>14.12886640658854</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.28797955690547</v>
+        <v>18.86243474381178</v>
       </c>
       <c r="N23">
-        <v>11.03179544413513</v>
+        <v>11.12101025753499</v>
       </c>
       <c r="O23">
-        <v>27.26443318974096</v>
+        <v>16.32275707523524</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.24629368027797</v>
+        <v>15.19522889488057</v>
       </c>
       <c r="C24">
-        <v>16.18655206122015</v>
+        <v>7.757434571284579</v>
       </c>
       <c r="D24">
-        <v>3.219272381015787</v>
+        <v>5.219026998638979</v>
       </c>
       <c r="E24">
-        <v>14.02233211113073</v>
+        <v>17.53590971223918</v>
       </c>
       <c r="F24">
-        <v>33.85992309158087</v>
+        <v>20.81282220113872</v>
       </c>
       <c r="G24">
-        <v>2.034034499810724</v>
+        <v>2.071587675580453</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.08638671376305</v>
+        <v>13.18411118995327</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.42222858208541</v>
+        <v>17.45595365670925</v>
       </c>
       <c r="N24">
-        <v>11.43314966151819</v>
+        <v>11.48218282077265</v>
       </c>
       <c r="O24">
-        <v>25.61094926308122</v>
+        <v>15.97337361030226</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.80774997242544</v>
+        <v>13.78586732557424</v>
       </c>
       <c r="C25">
-        <v>14.60291304543801</v>
+        <v>7.242441798855944</v>
       </c>
       <c r="D25">
-        <v>3.387300691738891</v>
+        <v>4.968898883391712</v>
       </c>
       <c r="E25">
-        <v>12.53428009486477</v>
+        <v>15.74292151790005</v>
       </c>
       <c r="F25">
-        <v>31.20823039230671</v>
+        <v>19.87715714405967</v>
       </c>
       <c r="G25">
-        <v>2.05135945206724</v>
+        <v>2.080381259056693</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.01327962324738</v>
+        <v>12.08889721368685</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.2863181333056</v>
+        <v>15.82838259849551</v>
       </c>
       <c r="N25">
-        <v>11.87983613669246</v>
+        <v>11.87907802547023</v>
       </c>
       <c r="O25">
-        <v>23.85724377153248</v>
+        <v>15.65311858115853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.65505461280149</v>
+        <v>12.07247003958997</v>
       </c>
       <c r="C2">
-        <v>6.838941489954182</v>
+        <v>6.95949752171395</v>
       </c>
       <c r="D2">
-        <v>4.774565550333994</v>
+        <v>5.107532505814889</v>
       </c>
       <c r="E2">
-        <v>14.48618841574073</v>
+        <v>16.66194052860761</v>
       </c>
       <c r="F2">
-        <v>19.22544575779125</v>
+        <v>16.13198862719984</v>
       </c>
       <c r="G2">
-        <v>2.08712021553059</v>
+        <v>19.25050916414816</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.028899475915482</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.158482320285572</v>
       </c>
       <c r="K2">
-        <v>11.21697275062828</v>
+        <v>12.06611094947366</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.53243415701506</v>
+        <v>11.03333862951161</v>
       </c>
       <c r="N2">
-        <v>12.17881081197634</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.46310065874004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.24203783945692</v>
+      </c>
+      <c r="P2">
+        <v>11.81364306527322</v>
+      </c>
+      <c r="Q2">
+        <v>12.94576370700239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.82985002307618</v>
+        <v>11.3601863688533</v>
       </c>
       <c r="C3">
-        <v>6.551002941064049</v>
+        <v>6.656453574883381</v>
       </c>
       <c r="D3">
-        <v>4.63697487233161</v>
+        <v>4.881606569707849</v>
       </c>
       <c r="E3">
-        <v>13.61731739777729</v>
+        <v>15.79835562464916</v>
       </c>
       <c r="F3">
-        <v>18.80831788018455</v>
+        <v>15.81059259218403</v>
       </c>
       <c r="G3">
-        <v>2.091864435242519</v>
+        <v>18.86593960424604</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.841916223345991</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.183056486722347</v>
       </c>
       <c r="K3">
-        <v>10.58548165728495</v>
+        <v>12.15312202328793</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.59222764442194</v>
+        <v>10.48629654148461</v>
       </c>
       <c r="N3">
-        <v>12.38717983542856</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.36124172141332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.46632566361558</v>
+      </c>
+      <c r="P3">
+        <v>11.95045499384803</v>
+      </c>
+      <c r="Q3">
+        <v>12.89985051469319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.29393339981555</v>
+        <v>10.8983784459236</v>
       </c>
       <c r="C4">
-        <v>6.367372830105852</v>
+        <v>6.462779129984378</v>
       </c>
       <c r="D4">
-        <v>4.549765885073639</v>
+        <v>4.736568797837252</v>
       </c>
       <c r="E4">
-        <v>13.06754353331281</v>
+        <v>15.24274799514035</v>
       </c>
       <c r="F4">
-        <v>18.56471349482606</v>
+        <v>15.62074610944246</v>
       </c>
       <c r="G4">
-        <v>2.094868582182123</v>
+        <v>18.641444246155</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.722836989361064</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.201626514086751</v>
       </c>
       <c r="K4">
-        <v>10.17794495073894</v>
+        <v>12.21307825102433</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.9841191357759</v>
+        <v>10.13437430018634</v>
       </c>
       <c r="N4">
-        <v>12.51787417275011</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.31137723345082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.9669034421683</v>
+      </c>
+      <c r="P4">
+        <v>12.03642873214272</v>
+      </c>
+      <c r="Q4">
+        <v>12.87917034019673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06816550907713</v>
+        <v>10.70408122785834</v>
       </c>
       <c r="C5">
-        <v>6.290880017331261</v>
+        <v>6.382013030801972</v>
       </c>
       <c r="D5">
-        <v>4.513571371209544</v>
+        <v>4.675915305851183</v>
       </c>
       <c r="E5">
-        <v>12.83961562175214</v>
+        <v>15.01008440094144</v>
       </c>
       <c r="F5">
-        <v>18.46864463429808</v>
+        <v>15.54533000888138</v>
       </c>
       <c r="G5">
-        <v>2.096116249274818</v>
+        <v>18.55293286515338</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.67322463786954</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.210046178698837</v>
       </c>
       <c r="K5">
-        <v>10.00694134256192</v>
+        <v>12.2390990313512</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.72853218233599</v>
+        <v>9.987022446710876</v>
       </c>
       <c r="N5">
-        <v>12.57184961677583</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.29415062647231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.75769704766708</v>
+      </c>
+      <c r="P5">
+        <v>12.07196793688543</v>
+      </c>
+      <c r="Q5">
+        <v>12.87258277405651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.03023069749344</v>
+        <v>10.67145109279488</v>
       </c>
       <c r="C6">
-        <v>6.278079899023242</v>
+        <v>6.368492878253493</v>
       </c>
       <c r="D6">
-        <v>4.507522592545801</v>
+        <v>4.665751540346742</v>
       </c>
       <c r="E6">
-        <v>12.80154037178502</v>
+        <v>14.9710776766694</v>
       </c>
       <c r="F6">
-        <v>18.45288726651307</v>
+        <v>15.53292661915399</v>
       </c>
       <c r="G6">
-        <v>2.096324854886735</v>
+        <v>18.53841629875264</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.664920551920333</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.211495060631384</v>
       </c>
       <c r="K6">
-        <v>9.978250386030414</v>
+        <v>12.24351413948717</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.68562178166749</v>
+        <v>9.962319819164136</v>
       </c>
       <c r="N6">
-        <v>12.58085614249542</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.29147414748987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.72261928751447</v>
+      </c>
+      <c r="P6">
+        <v>12.07789989710133</v>
+      </c>
+      <c r="Q6">
+        <v>12.87159856210154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.29091851646725</v>
+        <v>10.89578274184144</v>
       </c>
       <c r="C7">
-        <v>6.366347869216636</v>
+        <v>6.461697248626446</v>
       </c>
       <c r="D7">
-        <v>4.549280368623639</v>
+        <v>4.735757020307518</v>
       </c>
       <c r="E7">
-        <v>13.06448506286753</v>
+        <v>15.23963532406062</v>
       </c>
       <c r="F7">
-        <v>18.56340484685861</v>
+        <v>15.61972105454254</v>
       </c>
       <c r="G7">
-        <v>2.094885313017525</v>
+        <v>18.64023846165914</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.722172316013076</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.201736644289467</v>
       </c>
       <c r="K7">
-        <v>10.17565861682876</v>
+        <v>12.21342281603324</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.98070372280477</v>
+        <v>10.13240288264943</v>
       </c>
       <c r="N7">
-        <v>12.51859917302236</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.31113251202377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.96410485009343</v>
+      </c>
+      <c r="P7">
+        <v>12.03690597343862</v>
+      </c>
+      <c r="Q7">
+        <v>12.87907411488757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.37657539871723</v>
+        <v>11.8319742289818</v>
       </c>
       <c r="C8">
-        <v>6.741109882981457</v>
+        <v>6.856624877050066</v>
       </c>
       <c r="D8">
-        <v>4.727707463778884</v>
+        <v>5.03096622429199</v>
       </c>
       <c r="E8">
-        <v>14.19008804731968</v>
+        <v>16.36950949939605</v>
       </c>
       <c r="F8">
-        <v>19.07905884817542</v>
+        <v>16.01965639214372</v>
       </c>
       <c r="G8">
-        <v>2.088737422803965</v>
+        <v>19.11552705485524</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.965306295713259</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.166218835429561</v>
       </c>
       <c r="K8">
-        <v>11.00336858868726</v>
+        <v>12.0947235900445</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.21462687102002</v>
+        <v>10.84809638464032</v>
       </c>
       <c r="N8">
-        <v>12.25009929214373</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.42529351397827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.97944215123963</v>
+      </c>
+      <c r="P8">
+        <v>11.86041211652287</v>
+      </c>
+      <c r="Q8">
+        <v>12.92834526725244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27496664940308</v>
+        <v>13.47247283066609</v>
       </c>
       <c r="C9">
-        <v>7.419768090646624</v>
+        <v>7.568196679246382</v>
       </c>
       <c r="D9">
-        <v>5.054788069794177</v>
+        <v>5.558327088426653</v>
       </c>
       <c r="E9">
-        <v>16.36176938519081</v>
+        <v>18.37959035859799</v>
       </c>
       <c r="F9">
-        <v>20.1867366038225</v>
+        <v>16.86033193447765</v>
       </c>
       <c r="G9">
-        <v>2.077379784764864</v>
+        <v>20.13730960614889</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.408799355210388</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.125253756587977</v>
       </c>
       <c r="K9">
-        <v>12.46801484323096</v>
+        <v>11.91631268751822</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.39163105083587</v>
+        <v>12.121160642512</v>
       </c>
       <c r="N9">
-        <v>11.74429574941507</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.7536800958761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.78262944374104</v>
+      </c>
+      <c r="P9">
+        <v>11.52953437521596</v>
+      </c>
+      <c r="Q9">
+        <v>13.08663143414893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.53140719097987</v>
+        <v>14.56467791301597</v>
       </c>
       <c r="C10">
-        <v>7.881983663243954</v>
+        <v>8.04125345141288</v>
       </c>
       <c r="D10">
-        <v>5.279805207009898</v>
+        <v>5.930361071701045</v>
       </c>
       <c r="E10">
-        <v>17.96808338466546</v>
+        <v>19.19176694346443</v>
       </c>
       <c r="F10">
-        <v>21.05533959076969</v>
+        <v>17.4288643551413</v>
       </c>
       <c r="G10">
-        <v>2.069424033193356</v>
+        <v>20.79668840576126</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.693434816675774</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.091684533566481</v>
       </c>
       <c r="K10">
-        <v>13.44651608202066</v>
+        <v>11.78056777498263</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.8462655029579</v>
+        <v>12.97479659207127</v>
       </c>
       <c r="N10">
-        <v>11.38363639710412</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.06362324565714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.71257322130226</v>
+      </c>
+      <c r="P10">
+        <v>11.29787342911222</v>
+      </c>
+      <c r="Q10">
+        <v>13.18452647571695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.0735214117892</v>
+        <v>15.09599700427639</v>
       </c>
       <c r="C11">
-        <v>8.084061696444417</v>
+        <v>8.174665531353345</v>
       </c>
       <c r="D11">
-        <v>5.378609630055139</v>
+        <v>6.243302857996745</v>
       </c>
       <c r="E11">
-        <v>18.66876449082727</v>
+        <v>15.07438081960774</v>
       </c>
       <c r="F11">
-        <v>21.46152339651658</v>
+        <v>17.00458699646565</v>
       </c>
       <c r="G11">
-        <v>2.065880432260231</v>
+        <v>19.87508792495312</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.327801110594743</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.884239580539678</v>
       </c>
       <c r="K11">
-        <v>13.87048439754465</v>
+        <v>11.36690375945951</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.47741138408027</v>
+        <v>13.35514572188121</v>
       </c>
       <c r="N11">
-        <v>11.22154629673394</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.22048024291331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.75668910666899</v>
+      </c>
+      <c r="P11">
+        <v>11.23026417999535</v>
+      </c>
+      <c r="Q11">
+        <v>12.72670930240976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.27462044398026</v>
+        <v>15.32399841081494</v>
       </c>
       <c r="C12">
-        <v>8.159390119362948</v>
+        <v>8.192056467797668</v>
       </c>
       <c r="D12">
-        <v>5.41549561498776</v>
+        <v>6.433269874658986</v>
       </c>
       <c r="E12">
-        <v>18.9298877422878</v>
+        <v>11.67443278993229</v>
       </c>
       <c r="F12">
-        <v>21.61685561896061</v>
+        <v>16.51054911789554</v>
       </c>
       <c r="G12">
-        <v>2.064548654752502</v>
+        <v>18.93367125165178</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.431923492047869</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.711363470666422</v>
       </c>
       <c r="K12">
-        <v>14.02799846808266</v>
+        <v>11.04138589517492</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.71209043193796</v>
+        <v>13.50369149910903</v>
       </c>
       <c r="N12">
-        <v>11.16041651742589</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.28222825180771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.90892109061036</v>
+      </c>
+      <c r="P12">
+        <v>11.23567676507807</v>
+      </c>
+      <c r="Q12">
+        <v>12.30828285182059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.23149565054128</v>
+        <v>15.33968521694451</v>
       </c>
       <c r="C13">
-        <v>8.143220113538478</v>
+        <v>8.121726575783967</v>
       </c>
       <c r="D13">
-        <v>5.407575347701048</v>
+        <v>6.544353962890155</v>
       </c>
       <c r="E13">
-        <v>18.87383552489349</v>
+        <v>8.84777532465929</v>
       </c>
       <c r="F13">
-        <v>21.58333551348258</v>
+        <v>15.92161905071679</v>
       </c>
       <c r="G13">
-        <v>2.064835039847212</v>
+        <v>17.90037024795048</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.67290516781171</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.55432251436133</v>
       </c>
       <c r="K13">
-        <v>13.99420969609439</v>
+        <v>10.76469100335173</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.66173906975303</v>
+        <v>13.48689760307002</v>
       </c>
       <c r="N13">
-        <v>11.17357134317667</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.26882416467715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.98802379395191</v>
+      </c>
+      <c r="P13">
+        <v>11.29328471652386</v>
+      </c>
+      <c r="Q13">
+        <v>11.89191145853685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09014960328929</v>
+        <v>15.25502883504265</v>
       </c>
       <c r="C14">
-        <v>8.090283019915796</v>
+        <v>8.0323935364472</v>
       </c>
       <c r="D14">
-        <v>5.381654959479234</v>
+        <v>6.587591128628803</v>
       </c>
       <c r="E14">
-        <v>18.69033095226492</v>
+        <v>7.559818638586727</v>
       </c>
       <c r="F14">
-        <v>21.47427259940394</v>
+        <v>15.46238210040847</v>
       </c>
       <c r="G14">
-        <v>2.065770668040921</v>
+        <v>17.12965185153018</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.586560413568961</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.452147956215146</v>
       </c>
       <c r="K14">
-        <v>13.88350389567388</v>
+        <v>10.59548279849264</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.49680474225107</v>
+        <v>13.40031648677407</v>
       </c>
       <c r="N14">
-        <v>11.21651229994443</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.22551282038164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.599593266011503</v>
+      </c>
+      <c r="P14">
+        <v>11.35690544022931</v>
+      </c>
+      <c r="Q14">
+        <v>11.60212503758994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.00302712056965</v>
+        <v>15.18847592106187</v>
       </c>
       <c r="C15">
-        <v>8.057701605466889</v>
+        <v>7.991350545087818</v>
       </c>
       <c r="D15">
-        <v>5.36570858245242</v>
+        <v>6.581167701568832</v>
       </c>
       <c r="E15">
-        <v>18.57738435992406</v>
+        <v>7.385911187501836</v>
       </c>
       <c r="F15">
-        <v>21.40766430867725</v>
+        <v>15.33174968504524</v>
       </c>
       <c r="G15">
-        <v>2.066345060438855</v>
+        <v>16.92480486908099</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.795962933200799</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.431479889336955</v>
       </c>
       <c r="K15">
-        <v>13.81529872434177</v>
+        <v>10.56584484262861</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.39521715650504</v>
+        <v>13.3433062514824</v>
       </c>
       <c r="N15">
-        <v>11.24284641999424</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.1992913292275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.243006541641725</v>
+      </c>
+      <c r="P15">
+        <v>11.38110172967064</v>
+      </c>
+      <c r="Q15">
+        <v>11.53387460332409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.49539011472725</v>
+        <v>14.74169136860998</v>
       </c>
       <c r="C16">
-        <v>7.868611074458457</v>
+        <v>7.806385857275234</v>
       </c>
       <c r="D16">
-        <v>5.273274973981419</v>
+        <v>6.411871778775737</v>
       </c>
       <c r="E16">
-        <v>17.92169692571518</v>
+        <v>7.398736884138707</v>
       </c>
       <c r="F16">
-        <v>21.02901077532177</v>
+        <v>15.18165971800348</v>
       </c>
       <c r="G16">
-        <v>2.069657072242439</v>
+        <v>16.80834235989052</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.532818078231747</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.476789469157291</v>
       </c>
       <c r="K16">
-        <v>13.41838361263489</v>
+        <v>10.68072632039365</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.80440959169508</v>
+        <v>12.99534180042656</v>
       </c>
       <c r="N16">
-        <v>11.3942662750414</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.05369743927934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.112041719821208</v>
+      </c>
+      <c r="P16">
+        <v>11.45707919696432</v>
+      </c>
+      <c r="Q16">
+        <v>11.5701747260061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17646134549604</v>
+        <v>14.43830699923877</v>
       </c>
       <c r="C17">
-        <v>7.750499498802601</v>
+        <v>7.711252292122229</v>
       </c>
       <c r="D17">
-        <v>5.215645683980456</v>
+        <v>6.255493638708311</v>
       </c>
       <c r="E17">
-        <v>17.51183506961298</v>
+        <v>7.929150070294182</v>
       </c>
       <c r="F17">
-        <v>20.79949787575522</v>
+        <v>15.31925450990335</v>
       </c>
       <c r="G17">
-        <v>2.071707705385525</v>
+        <v>17.14200809783827</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.797332316270174</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.566311982022024</v>
       </c>
       <c r="K17">
-        <v>13.16947421058164</v>
+        <v>10.85840458500957</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.43418805778166</v>
+        <v>12.77109873485572</v>
       </c>
       <c r="N17">
-        <v>11.48764003544222</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.96849338714282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.773892220257943</v>
+      </c>
+      <c r="P17">
+        <v>11.4833401763406</v>
+      </c>
+      <c r="Q17">
+        <v>11.75406902965801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.99024728906864</v>
+        <v>14.23064938718342</v>
       </c>
       <c r="C18">
-        <v>7.681794944337986</v>
+        <v>7.685831050079404</v>
       </c>
       <c r="D18">
-        <v>5.182164947777497</v>
+        <v>6.094769098107421</v>
       </c>
       <c r="E18">
-        <v>17.27325867397829</v>
+        <v>9.771887475636925</v>
       </c>
       <c r="F18">
-        <v>20.66853225244163</v>
+        <v>15.71278480320519</v>
       </c>
       <c r="G18">
-        <v>2.072894330544358</v>
+        <v>17.89054751401024</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.620930169194946</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.702325714742571</v>
       </c>
       <c r="K18">
-        <v>13.02431570940118</v>
+        <v>11.1096158310147</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.21836369533844</v>
+        <v>12.63302531228435</v>
       </c>
       <c r="N18">
-        <v>11.54153426258921</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.92097552153239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.22238331091318</v>
+      </c>
+      <c r="P18">
+        <v>11.47550130471359</v>
+      </c>
+      <c r="Q18">
+        <v>12.08171653180822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.92672049018957</v>
+        <v>14.11932549555808</v>
       </c>
       <c r="C19">
-        <v>7.658401147049086</v>
+        <v>7.720370033755142</v>
       </c>
       <c r="D19">
-        <v>5.170772172057309</v>
+        <v>5.944838537800952</v>
       </c>
       <c r="E19">
-        <v>17.19199076656184</v>
+        <v>13.06663666818434</v>
       </c>
       <c r="F19">
-        <v>20.62437111511138</v>
+        <v>16.27427707203153</v>
       </c>
       <c r="G19">
-        <v>2.073297352427162</v>
+        <v>18.90668292669892</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.359411785158879</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.86514576106743</v>
       </c>
       <c r="K19">
-        <v>12.97482519051941</v>
+        <v>11.40424205971345</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.1447920134623</v>
+        <v>12.57747712365797</v>
       </c>
       <c r="N19">
-        <v>11.55981522707989</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.90514039946981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.20202053039584</v>
+      </c>
+      <c r="P19">
+        <v>11.44798657014842</v>
+      </c>
+      <c r="Q19">
+        <v>12.49934297897715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.2106986970709</v>
+        <v>14.28639012452658</v>
       </c>
       <c r="C20">
-        <v>7.763152501237222</v>
+        <v>7.91948261219386</v>
       </c>
       <c r="D20">
-        <v>5.221815111439424</v>
+        <v>5.835837931704304</v>
       </c>
       <c r="E20">
-        <v>17.55575818106021</v>
+        <v>18.95856019038784</v>
       </c>
       <c r="F20">
-        <v>20.82382238203767</v>
+        <v>17.27397898555449</v>
       </c>
       <c r="G20">
-        <v>2.071488676731008</v>
+        <v>20.61348603683351</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.617667669973715</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.098200903440631</v>
       </c>
       <c r="K20">
-        <v>13.19617720594718</v>
+        <v>11.81183105245277</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.47389660723044</v>
+        <v>12.75641074288438</v>
       </c>
       <c r="N20">
-        <v>11.4776810091066</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.97740885991808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.46161847231782</v>
+      </c>
+      <c r="P20">
+        <v>11.35808818244219</v>
+      </c>
+      <c r="Q20">
+        <v>13.15341941570807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13177963428917</v>
+        <v>15.0755865726463</v>
       </c>
       <c r="C21">
-        <v>8.105864442415653</v>
+        <v>8.282318009832769</v>
       </c>
       <c r="D21">
-        <v>5.389282895209801</v>
+        <v>6.083342858544667</v>
       </c>
       <c r="E21">
-        <v>18.74434400536024</v>
+        <v>20.37378954496705</v>
       </c>
       <c r="F21">
-        <v>21.50626631133953</v>
+        <v>17.84141677757238</v>
       </c>
       <c r="G21">
-        <v>2.065495583289574</v>
+        <v>21.35488668594263</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.865219034391238</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.113615383813951</v>
       </c>
       <c r="K21">
-        <v>13.91610309648778</v>
+        <v>11.78453436462541</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.54536662702906</v>
+        <v>13.38298409915887</v>
       </c>
       <c r="N21">
-        <v>11.20389298984199</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.23817011754447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.56704390562046</v>
+      </c>
+      <c r="P21">
+        <v>11.17883066878087</v>
+      </c>
+      <c r="Q21">
+        <v>13.33276148260778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.70937305248403</v>
+        <v>15.57315816018786</v>
       </c>
       <c r="C22">
-        <v>8.322882314285806</v>
+        <v>8.507009709701308</v>
       </c>
       <c r="D22">
-        <v>5.495642072783764</v>
+        <v>6.247855500222812</v>
       </c>
       <c r="E22">
-        <v>19.49667646065176</v>
+        <v>20.99781179106594</v>
       </c>
       <c r="F22">
-        <v>21.96111137033925</v>
+        <v>18.1758316521826</v>
       </c>
       <c r="G22">
-        <v>2.061637277329541</v>
+        <v>21.77442349448564</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.011747818859906</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.116156947119034</v>
       </c>
       <c r="K22">
-        <v>14.36894352424022</v>
+        <v>11.75344935602235</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.22048077873758</v>
+        <v>13.77745770078501</v>
       </c>
       <c r="N22">
-        <v>11.02639786938241</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.42231723857678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.12444408465533</v>
+      </c>
+      <c r="P22">
+        <v>11.06436097847463</v>
+      </c>
+      <c r="Q22">
+        <v>13.42801338074907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.40331572105155</v>
+        <v>15.30958871558986</v>
       </c>
       <c r="C23">
-        <v>8.207697126344565</v>
+        <v>8.387825594320816</v>
       </c>
       <c r="D23">
-        <v>5.439164241659557</v>
+        <v>6.160628647256615</v>
       </c>
       <c r="E23">
-        <v>19.09734287763812</v>
+        <v>20.66698285662365</v>
       </c>
       <c r="F23">
-        <v>21.71756531117561</v>
+        <v>17.99698359249098</v>
       </c>
       <c r="G23">
-        <v>2.063691434192656</v>
+        <v>21.54980208417689</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.933836467895105</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.114433919823167</v>
       </c>
       <c r="K23">
-        <v>14.12886640658854</v>
+        <v>11.76929714280933</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.86243474381178</v>
+        <v>13.56835065997767</v>
       </c>
       <c r="N23">
-        <v>11.12101025753499</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.32275707523524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.82899405726286</v>
+      </c>
+      <c r="P23">
+        <v>11.12533151247303</v>
+      </c>
+      <c r="Q23">
+        <v>13.37643251941275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.19522889488057</v>
+        <v>14.2675194105174</v>
       </c>
       <c r="C24">
-        <v>7.757434571284579</v>
+        <v>7.920350782902938</v>
       </c>
       <c r="D24">
-        <v>5.219026998638979</v>
+        <v>5.817671475133759</v>
       </c>
       <c r="E24">
-        <v>17.53590971223918</v>
+        <v>19.36530513172397</v>
       </c>
       <c r="F24">
-        <v>20.81282220113872</v>
+        <v>17.32805552481355</v>
       </c>
       <c r="G24">
-        <v>2.071587675580453</v>
+        <v>20.71505594050837</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.632211865084802</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.115799014038659</v>
       </c>
       <c r="K24">
-        <v>13.18411118995327</v>
+        <v>11.84520960487654</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.45595365670925</v>
+        <v>12.74507214320914</v>
       </c>
       <c r="N24">
-        <v>11.48218282077265</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.97337361030226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.66523639659743</v>
+      </c>
+      <c r="P24">
+        <v>11.35903704897847</v>
+      </c>
+      <c r="Q24">
+        <v>13.19719920215079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.78586732557424</v>
+        <v>13.04971951624961</v>
       </c>
       <c r="C25">
-        <v>7.242441798855944</v>
+        <v>7.382745762765976</v>
       </c>
       <c r="D25">
-        <v>4.968898883391712</v>
+        <v>5.421353762771592</v>
       </c>
       <c r="E25">
-        <v>15.74292151790005</v>
+        <v>17.85833720408154</v>
       </c>
       <c r="F25">
-        <v>19.87715714405967</v>
+        <v>16.62730107432354</v>
       </c>
       <c r="G25">
-        <v>2.080381259056693</v>
+        <v>19.85166192288746</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.292299845836441</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.133112946392023</v>
       </c>
       <c r="K25">
-        <v>12.08889721368685</v>
+        <v>11.95839121918414</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.82838259849551</v>
+        <v>11.79110545230773</v>
       </c>
       <c r="N25">
-        <v>11.87907802547023</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.65311858115853</v>
+        <v>15.31544925745043</v>
+      </c>
+      <c r="P25">
+        <v>11.61747601532227</v>
+      </c>
+      <c r="Q25">
+        <v>13.03692435377949</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.07247003958997</v>
+        <v>11.90556377022884</v>
       </c>
       <c r="C2">
-        <v>6.95949752171395</v>
+        <v>7.185024240010067</v>
       </c>
       <c r="D2">
-        <v>5.107532505814889</v>
+        <v>5.164085321810806</v>
       </c>
       <c r="E2">
-        <v>16.66194052860761</v>
+        <v>16.63525564534494</v>
       </c>
       <c r="F2">
-        <v>16.13198862719984</v>
+        <v>15.91106112922253</v>
       </c>
       <c r="G2">
-        <v>19.25050916414816</v>
+        <v>18.14015760169826</v>
       </c>
       <c r="H2">
-        <v>2.028899475915482</v>
+        <v>2.019625463649768</v>
       </c>
       <c r="J2">
-        <v>8.158482320285572</v>
+        <v>8.645528742385297</v>
       </c>
       <c r="K2">
-        <v>12.06611094947366</v>
+        <v>11.84516226430359</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.94233146471089</v>
       </c>
       <c r="M2">
-        <v>11.03333862951161</v>
+        <v>6.619430046520157</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.24203783945692</v>
+        <v>11.01920692376139</v>
       </c>
       <c r="P2">
-        <v>11.81364306527322</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.94576370700239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.24765829336214</v>
+      </c>
+      <c r="R2">
+        <v>11.80678984664871</v>
+      </c>
+      <c r="S2">
+        <v>12.79579075645325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.3601863688533</v>
+        <v>11.24259067441001</v>
       </c>
       <c r="C3">
-        <v>6.656453574883381</v>
+        <v>6.78634761175059</v>
       </c>
       <c r="D3">
-        <v>4.881606569707849</v>
+        <v>4.923572594917614</v>
       </c>
       <c r="E3">
-        <v>15.79835562464916</v>
+        <v>15.78248645591</v>
       </c>
       <c r="F3">
-        <v>15.81059259218403</v>
+        <v>15.62505127222693</v>
       </c>
       <c r="G3">
-        <v>18.86593960424604</v>
+        <v>17.81720023722341</v>
       </c>
       <c r="H3">
-        <v>1.841916223345991</v>
+        <v>1.838702409485482</v>
       </c>
       <c r="J3">
-        <v>8.183056486722347</v>
+        <v>8.649320405412286</v>
       </c>
       <c r="K3">
-        <v>12.15312202328793</v>
+        <v>11.94619192983075</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.10686953816699</v>
       </c>
       <c r="M3">
-        <v>10.48629654148461</v>
+        <v>6.607583788808817</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.46632566361558</v>
+        <v>10.47499005015704</v>
       </c>
       <c r="P3">
-        <v>11.95045499384803</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.89985051469319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.47398105371517</v>
+      </c>
+      <c r="R3">
+        <v>11.93118419913177</v>
+      </c>
+      <c r="S3">
+        <v>12.77004251516948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.8983784459236</v>
+        <v>10.81296211629351</v>
       </c>
       <c r="C4">
-        <v>6.462779129984378</v>
+        <v>6.530734704538893</v>
       </c>
       <c r="D4">
-        <v>4.736568797837252</v>
+        <v>4.769140146243254</v>
       </c>
       <c r="E4">
-        <v>15.24274799514035</v>
+        <v>15.2341151383582</v>
       </c>
       <c r="F4">
-        <v>15.62074610944246</v>
+        <v>15.45588185840927</v>
       </c>
       <c r="G4">
-        <v>18.641444246155</v>
+        <v>17.63179519662486</v>
       </c>
       <c r="H4">
-        <v>1.722836989361064</v>
+        <v>1.723448322510027</v>
       </c>
       <c r="J4">
-        <v>8.201626514086751</v>
+        <v>8.653415152944753</v>
       </c>
       <c r="K4">
-        <v>12.21307825102433</v>
+        <v>12.01323259959037</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.21264784856476</v>
       </c>
       <c r="M4">
-        <v>10.13437430018634</v>
+        <v>6.624659320233492</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.9669034421683</v>
+        <v>10.12491780511476</v>
       </c>
       <c r="P4">
-        <v>12.03642873214272</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.87917034019673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.97586200960539</v>
+      </c>
+      <c r="R4">
+        <v>12.00961067337899</v>
+      </c>
+      <c r="S4">
+        <v>12.76055116045025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.70408122785834</v>
+        <v>10.63226232613707</v>
       </c>
       <c r="C5">
-        <v>6.382013030801972</v>
+        <v>6.42395073465244</v>
       </c>
       <c r="D5">
-        <v>4.675915305851183</v>
+        <v>4.704553280380561</v>
       </c>
       <c r="E5">
-        <v>15.01008440094144</v>
+        <v>15.00455722437176</v>
       </c>
       <c r="F5">
-        <v>15.54533000888138</v>
+        <v>15.38860491502401</v>
       </c>
       <c r="G5">
-        <v>18.55293286515338</v>
+        <v>17.55947291062408</v>
       </c>
       <c r="H5">
-        <v>1.67322463786954</v>
+        <v>1.675421903522164</v>
       </c>
       <c r="J5">
-        <v>8.210046178698837</v>
+        <v>8.655519503964895</v>
       </c>
       <c r="K5">
-        <v>12.2390990313512</v>
+        <v>12.04177292568489</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.25695949456188</v>
       </c>
       <c r="M5">
-        <v>9.987022446710876</v>
+        <v>6.637653867080184</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.75769704766708</v>
+        <v>9.978353095851004</v>
       </c>
       <c r="P5">
-        <v>12.07196793688543</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.87258277405651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.76720334232984</v>
+      </c>
+      <c r="R5">
+        <v>12.04209081290783</v>
+      </c>
+      <c r="S5">
+        <v>12.75822506063399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.67145109279488</v>
+        <v>10.60191942621601</v>
       </c>
       <c r="C6">
-        <v>6.368492878253493</v>
+        <v>6.40606451754992</v>
       </c>
       <c r="D6">
-        <v>4.665751540346742</v>
+        <v>4.69373021906884</v>
       </c>
       <c r="E6">
-        <v>14.9710776766694</v>
+        <v>14.96607588479777</v>
       </c>
       <c r="F6">
-        <v>15.53292661915399</v>
+        <v>15.37753504740793</v>
       </c>
       <c r="G6">
-        <v>18.53841629875264</v>
+        <v>17.54765847490974</v>
       </c>
       <c r="H6">
-        <v>1.664920551920333</v>
+        <v>1.667382827863775</v>
       </c>
       <c r="J6">
-        <v>8.211495060631384</v>
+        <v>8.655894998676153</v>
       </c>
       <c r="K6">
-        <v>12.24351413948717</v>
+        <v>12.04658466339769</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.26439058786552</v>
       </c>
       <c r="M6">
-        <v>9.962319819164136</v>
+        <v>6.640172586359125</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.72261928751447</v>
+        <v>9.953783314136819</v>
       </c>
       <c r="P6">
-        <v>12.07789989710133</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.87159856210154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.73221763683242</v>
+      </c>
+      <c r="R6">
+        <v>12.0475157332946</v>
+      </c>
+      <c r="S6">
+        <v>12.75793053578095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.89578274184144</v>
+        <v>10.80818875399424</v>
       </c>
       <c r="C7">
-        <v>6.461697248626446</v>
+        <v>6.52372206650764</v>
       </c>
       <c r="D7">
-        <v>4.735757020307518</v>
+        <v>4.770898308681754</v>
       </c>
       <c r="E7">
-        <v>15.23963532406062</v>
+        <v>15.23199391114419</v>
       </c>
       <c r="F7">
-        <v>15.61972105454254</v>
+        <v>15.44373909573893</v>
       </c>
       <c r="G7">
-        <v>18.64023846165914</v>
+        <v>17.71916142622412</v>
       </c>
       <c r="H7">
-        <v>1.722172316013076</v>
+        <v>1.722483794107524</v>
       </c>
       <c r="J7">
-        <v>8.201736644289467</v>
+        <v>8.620491945322826</v>
       </c>
       <c r="K7">
-        <v>12.21342281603324</v>
+        <v>12.00915631586745</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.2091225446228</v>
       </c>
       <c r="M7">
-        <v>10.13240288264943</v>
+        <v>6.622235588299947</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.96410485009343</v>
+        <v>10.1196584821036</v>
       </c>
       <c r="P7">
-        <v>12.03690597343862</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.87907411488757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.97135587064532</v>
+      </c>
+      <c r="R7">
+        <v>12.01001920194168</v>
+      </c>
+      <c r="S7">
+        <v>12.75278111997805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.8319742289818</v>
+        <v>11.67438831865573</v>
       </c>
       <c r="C8">
-        <v>6.856624877050066</v>
+        <v>7.032284223046505</v>
       </c>
       <c r="D8">
-        <v>5.03096622429199</v>
+        <v>5.090896372581746</v>
       </c>
       <c r="E8">
-        <v>16.36950949939605</v>
+        <v>16.3495143146462</v>
       </c>
       <c r="F8">
-        <v>16.01965639214372</v>
+        <v>15.77470419618822</v>
       </c>
       <c r="G8">
-        <v>19.11552705485524</v>
+        <v>18.3140961364005</v>
       </c>
       <c r="H8">
-        <v>1.965306295713259</v>
+        <v>1.957110851821066</v>
       </c>
       <c r="J8">
-        <v>8.166218835429561</v>
+        <v>8.539087273488551</v>
       </c>
       <c r="K8">
-        <v>12.0947235900445</v>
+        <v>11.86423645914081</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.98578824643826</v>
       </c>
       <c r="M8">
-        <v>10.84809638464032</v>
+        <v>6.599768307007404</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.97944215123963</v>
+        <v>10.82458995599129</v>
       </c>
       <c r="P8">
-        <v>11.86041211652287</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.92834526725244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.98043729267823</v>
+      </c>
+      <c r="R8">
+        <v>11.84945425624018</v>
+      </c>
+      <c r="S8">
+        <v>12.76008866306995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.47247283066609</v>
+        <v>13.20111559088722</v>
       </c>
       <c r="C9">
-        <v>7.568196679246382</v>
+        <v>7.960792820647734</v>
       </c>
       <c r="D9">
-        <v>5.558327088426653</v>
+        <v>5.653514463441157</v>
       </c>
       <c r="E9">
-        <v>18.37959035859799</v>
+        <v>18.3362470875995</v>
       </c>
       <c r="F9">
-        <v>16.86033193447765</v>
+        <v>16.51434458958474</v>
       </c>
       <c r="G9">
-        <v>20.13730960614889</v>
+        <v>19.25332043132773</v>
       </c>
       <c r="H9">
-        <v>2.408799355210388</v>
+        <v>2.385865504296316</v>
       </c>
       <c r="J9">
-        <v>8.125253756587977</v>
+        <v>8.51086461072026</v>
       </c>
       <c r="K9">
-        <v>11.91631268751822</v>
+        <v>11.63778399787865</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.60012342312737</v>
       </c>
       <c r="M9">
-        <v>12.121160642512</v>
+        <v>6.759304752065459</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.78262944374104</v>
+        <v>12.08944113668373</v>
       </c>
       <c r="P9">
-        <v>11.52953437521596</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.08663143414893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.77796234280896</v>
+      </c>
+      <c r="R9">
+        <v>11.55071449392823</v>
+      </c>
+      <c r="S9">
+        <v>12.85489908871311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.56467791301597</v>
+        <v>14.21099651704614</v>
       </c>
       <c r="C10">
-        <v>8.04125345141288</v>
+        <v>8.543355673243054</v>
       </c>
       <c r="D10">
-        <v>5.930361071701045</v>
+        <v>6.060995055774369</v>
       </c>
       <c r="E10">
-        <v>19.19176694346443</v>
+        <v>19.13793378973717</v>
       </c>
       <c r="F10">
-        <v>17.4288643551413</v>
+        <v>16.95174480782776</v>
       </c>
       <c r="G10">
-        <v>20.79668840576126</v>
+        <v>20.33325747483456</v>
       </c>
       <c r="H10">
-        <v>2.693434816675774</v>
+        <v>2.65897371493855</v>
       </c>
       <c r="J10">
-        <v>8.091684533566481</v>
+        <v>8.301841916021079</v>
       </c>
       <c r="K10">
-        <v>11.78056777498263</v>
+        <v>11.43838366110661</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.2995615850128</v>
       </c>
       <c r="M10">
-        <v>12.97479659207127</v>
+        <v>6.933939931902708</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.71257322130226</v>
+        <v>12.92186042348576</v>
       </c>
       <c r="P10">
-        <v>11.29787342911222</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.18452647571695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.696081935816</v>
+      </c>
+      <c r="R10">
+        <v>11.34647896363475</v>
+      </c>
+      <c r="S10">
+        <v>12.86156875802944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.09599700427639</v>
+        <v>14.71652778322884</v>
       </c>
       <c r="C11">
-        <v>8.174665531353345</v>
+        <v>8.623754287157437</v>
       </c>
       <c r="D11">
-        <v>6.243302857996745</v>
+        <v>6.404747862554995</v>
       </c>
       <c r="E11">
-        <v>15.07438081960774</v>
+        <v>15.01436736902393</v>
       </c>
       <c r="F11">
-        <v>17.00458699646565</v>
+        <v>16.41108378718615</v>
       </c>
       <c r="G11">
-        <v>19.87508792495312</v>
+        <v>20.45445121924106</v>
       </c>
       <c r="H11">
-        <v>3.327801110594743</v>
+        <v>3.296667716335273</v>
       </c>
       <c r="J11">
-        <v>7.884239580539678</v>
+        <v>7.795178603344706</v>
       </c>
       <c r="K11">
-        <v>11.36690375945951</v>
+        <v>11.00705634118239</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.958727618075072</v>
       </c>
       <c r="M11">
-        <v>13.35514572188121</v>
+        <v>6.692701193390463</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.75668910666899</v>
+        <v>13.26655084314901</v>
       </c>
       <c r="P11">
-        <v>11.23026417999535</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.72670930240976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.72306160990969</v>
+      </c>
+      <c r="R11">
+        <v>11.31136427380938</v>
+      </c>
+      <c r="S11">
+        <v>12.33025462802827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.32399841081494</v>
+        <v>14.94592477194579</v>
       </c>
       <c r="C12">
-        <v>8.192056467797668</v>
+        <v>8.590377556729834</v>
       </c>
       <c r="D12">
-        <v>6.433269874658986</v>
+        <v>6.605837977059855</v>
       </c>
       <c r="E12">
-        <v>11.67443278993229</v>
+        <v>11.59870461598507</v>
       </c>
       <c r="F12">
-        <v>16.51054911789554</v>
+        <v>15.88412126159384</v>
       </c>
       <c r="G12">
-        <v>18.93367125165178</v>
+        <v>20.01651152343106</v>
       </c>
       <c r="H12">
-        <v>4.431923492047869</v>
+        <v>4.408552853951382</v>
       </c>
       <c r="J12">
-        <v>7.711363470666422</v>
+        <v>7.54465978433698</v>
       </c>
       <c r="K12">
-        <v>11.04138589517492</v>
+        <v>10.70063619259641</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.753786055026772</v>
       </c>
       <c r="M12">
-        <v>13.50369149910903</v>
+        <v>6.45164871832901</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.90892109061036</v>
+        <v>13.39849613421719</v>
       </c>
       <c r="P12">
-        <v>11.23567676507807</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.30828285182059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.86820427970538</v>
+      </c>
+      <c r="R12">
+        <v>11.3386675424665</v>
+      </c>
+      <c r="S12">
+        <v>11.89971233927771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.33968521694451</v>
+        <v>14.98862243633486</v>
       </c>
       <c r="C13">
-        <v>8.121726575783967</v>
+        <v>8.478306354071254</v>
       </c>
       <c r="D13">
-        <v>6.544353962890155</v>
+        <v>6.707530304311544</v>
       </c>
       <c r="E13">
-        <v>8.84777532465929</v>
+        <v>8.745813077040253</v>
       </c>
       <c r="F13">
-        <v>15.92161905071679</v>
+        <v>15.35034820420094</v>
       </c>
       <c r="G13">
-        <v>17.90037024795048</v>
+        <v>18.89393663834061</v>
       </c>
       <c r="H13">
-        <v>5.67290516781171</v>
+        <v>5.656152576825363</v>
       </c>
       <c r="J13">
-        <v>7.55432251436133</v>
+        <v>7.481417918026698</v>
       </c>
       <c r="K13">
-        <v>10.76469100335173</v>
+        <v>10.47930498783072</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.632371852269959</v>
       </c>
       <c r="M13">
-        <v>13.48689760307002</v>
+        <v>6.208504097787116</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.98802379395191</v>
+        <v>13.38521928690642</v>
       </c>
       <c r="P13">
-        <v>11.29328471652386</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.89191145853685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.95041947097077</v>
+      </c>
+      <c r="R13">
+        <v>11.40514987013139</v>
+      </c>
+      <c r="S13">
+        <v>11.53434511606098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.25502883504265</v>
+        <v>14.9346202760773</v>
       </c>
       <c r="C14">
-        <v>8.0323935364472</v>
+        <v>8.362893173595994</v>
       </c>
       <c r="D14">
-        <v>6.587591128628803</v>
+        <v>6.734810607464049</v>
       </c>
       <c r="E14">
-        <v>7.559818638586727</v>
+        <v>7.441559413611304</v>
       </c>
       <c r="F14">
-        <v>15.46238210040847</v>
+        <v>14.96821116115001</v>
       </c>
       <c r="G14">
-        <v>17.12965185153018</v>
+        <v>17.80225081972746</v>
       </c>
       <c r="H14">
-        <v>6.586560413568961</v>
+        <v>6.573514722800286</v>
       </c>
       <c r="J14">
-        <v>7.452147956215146</v>
+        <v>7.506068774198068</v>
       </c>
       <c r="K14">
-        <v>10.59548279849264</v>
+        <v>10.36192060542943</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.580342405797726</v>
       </c>
       <c r="M14">
-        <v>13.40031648677407</v>
+        <v>6.040273358160291</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.599593266011503</v>
+        <v>13.31000529515666</v>
       </c>
       <c r="P14">
-        <v>11.35690544022931</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.60212503758994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.568509503277372</v>
+      </c>
+      <c r="R14">
+        <v>11.46729907242439</v>
+      </c>
+      <c r="S14">
+        <v>11.3060100343114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.18847592106187</v>
+        <v>14.88081562007652</v>
       </c>
       <c r="C15">
-        <v>7.991350545087818</v>
+        <v>8.316410852753235</v>
       </c>
       <c r="D15">
-        <v>6.581167701568832</v>
+        <v>6.720423742125766</v>
       </c>
       <c r="E15">
-        <v>7.385911187501836</v>
+        <v>7.267398405475317</v>
       </c>
       <c r="F15">
-        <v>15.33174968504524</v>
+        <v>14.87271907380637</v>
       </c>
       <c r="G15">
-        <v>16.92480486908099</v>
+        <v>17.4104919486862</v>
       </c>
       <c r="H15">
-        <v>6.795962933200799</v>
+        <v>6.783920977258482</v>
       </c>
       <c r="J15">
-        <v>7.431479889336955</v>
+        <v>7.542962000828507</v>
       </c>
       <c r="K15">
-        <v>10.56584484262861</v>
+        <v>10.35016232470766</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.581940380278375</v>
       </c>
       <c r="M15">
-        <v>13.3433062514824</v>
+        <v>6.000842358199665</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.243006541641725</v>
+        <v>13.25964961957577</v>
       </c>
       <c r="P15">
-        <v>11.38110172967064</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.53387460332409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.215335460102727</v>
+      </c>
+      <c r="R15">
+        <v>11.487895271594</v>
+      </c>
+      <c r="S15">
+        <v>11.26336052113059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.74169136860998</v>
+        <v>14.48067334288817</v>
       </c>
       <c r="C16">
-        <v>7.806385857275234</v>
+        <v>8.133493002125332</v>
       </c>
       <c r="D16">
-        <v>6.411871778775737</v>
+        <v>6.516793588313306</v>
       </c>
       <c r="E16">
-        <v>7.398736884138707</v>
+        <v>7.29797729205713</v>
       </c>
       <c r="F16">
-        <v>15.18165971800348</v>
+        <v>14.85884045037518</v>
       </c>
       <c r="G16">
-        <v>16.80834235989052</v>
+        <v>16.4097159916559</v>
       </c>
       <c r="H16">
-        <v>6.532818078231747</v>
+        <v>6.52308146232657</v>
       </c>
       <c r="J16">
-        <v>7.476789469157291</v>
+        <v>7.832351904601127</v>
       </c>
       <c r="K16">
-        <v>10.68072632039365</v>
+        <v>10.50962234935099</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.721845923119291</v>
       </c>
       <c r="M16">
-        <v>12.99534180042656</v>
+        <v>6.016510907259903</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.112041719821208</v>
+        <v>12.94425440099997</v>
       </c>
       <c r="P16">
-        <v>11.45707919696432</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.5701747260061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.099710242131556</v>
+      </c>
+      <c r="R16">
+        <v>11.53781041905458</v>
+      </c>
+      <c r="S16">
+        <v>11.38835603759013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.43830699923877</v>
+        <v>14.1937282643931</v>
       </c>
       <c r="C17">
-        <v>7.711252292122229</v>
+        <v>8.047031622591742</v>
       </c>
       <c r="D17">
-        <v>6.255493638708311</v>
+        <v>6.346501968689306</v>
       </c>
       <c r="E17">
-        <v>7.929150070294182</v>
+        <v>7.841422260198451</v>
       </c>
       <c r="F17">
-        <v>15.31925450990335</v>
+        <v>15.04412088107639</v>
       </c>
       <c r="G17">
-        <v>17.14200809783827</v>
+        <v>16.36287090411692</v>
       </c>
       <c r="H17">
-        <v>5.797332316270174</v>
+        <v>5.787809594852208</v>
       </c>
       <c r="J17">
-        <v>7.566311982022024</v>
+        <v>8.026217005860849</v>
       </c>
       <c r="K17">
-        <v>10.85840458500957</v>
+        <v>10.69115464648313</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.862932959397892</v>
       </c>
       <c r="M17">
-        <v>12.77109873485572</v>
+        <v>6.111277170957165</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.773892220257943</v>
+        <v>12.73473267739138</v>
       </c>
       <c r="P17">
-        <v>11.4833401763406</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.75406902965801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.768312150438661</v>
+      </c>
+      <c r="R17">
+        <v>11.5488378413066</v>
+      </c>
+      <c r="S17">
+        <v>11.59876933676667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.23064938718342</v>
+        <v>13.98169927448505</v>
       </c>
       <c r="C18">
-        <v>7.685831050079404</v>
+        <v>8.047552889333602</v>
       </c>
       <c r="D18">
-        <v>6.094769098107421</v>
+        <v>6.182985247041469</v>
       </c>
       <c r="E18">
-        <v>9.771887475636925</v>
+        <v>9.69816562413199</v>
       </c>
       <c r="F18">
-        <v>15.71278480320519</v>
+        <v>15.43781029977685</v>
       </c>
       <c r="G18">
-        <v>17.89054751401024</v>
+        <v>16.93285901844407</v>
       </c>
       <c r="H18">
-        <v>4.620930169194946</v>
+        <v>4.609391203762265</v>
       </c>
       <c r="J18">
-        <v>7.702325714742571</v>
+        <v>8.196449359042877</v>
       </c>
       <c r="K18">
-        <v>11.1096158310147</v>
+        <v>10.92125706801683</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.02862686502701</v>
       </c>
       <c r="M18">
-        <v>12.63302531228435</v>
+        <v>6.284536264729858</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.22238331091318</v>
+        <v>12.60322128665499</v>
       </c>
       <c r="P18">
-        <v>11.47550130471359</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.08171653180822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.21960079256458</v>
+      </c>
+      <c r="R18">
+        <v>11.53029652591127</v>
+      </c>
+      <c r="S18">
+        <v>11.91954700056235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.11932549555808</v>
+        <v>13.85122187518635</v>
       </c>
       <c r="C19">
-        <v>7.720370033755142</v>
+        <v>8.124344569429741</v>
       </c>
       <c r="D19">
-        <v>5.944838537800952</v>
+        <v>6.03711194328059</v>
       </c>
       <c r="E19">
-        <v>13.06663666818434</v>
+        <v>13.00468227854374</v>
       </c>
       <c r="F19">
-        <v>16.27427707203153</v>
+        <v>15.97106031435544</v>
       </c>
       <c r="G19">
-        <v>18.90668292669892</v>
+        <v>17.86978436331125</v>
       </c>
       <c r="H19">
-        <v>3.359411785158879</v>
+        <v>3.342319141782839</v>
       </c>
       <c r="J19">
-        <v>7.86514576106743</v>
+        <v>8.354573822180958</v>
       </c>
       <c r="K19">
-        <v>11.40424205971345</v>
+        <v>11.1790194027268</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.205491119898</v>
       </c>
       <c r="M19">
-        <v>12.57747712365797</v>
+        <v>6.510558501894084</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.20202053039584</v>
+        <v>12.54953041135495</v>
       </c>
       <c r="P19">
-        <v>11.44798657014842</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.49934297897715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.19962795771741</v>
+      </c>
+      <c r="R19">
+        <v>11.49424636849452</v>
+      </c>
+      <c r="S19">
+        <v>12.31034407054411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.28639012452658</v>
+        <v>13.96050946314276</v>
       </c>
       <c r="C20">
-        <v>7.91948261219386</v>
+        <v>8.410038410566084</v>
       </c>
       <c r="D20">
-        <v>5.835837931704304</v>
+        <v>5.949390719258452</v>
       </c>
       <c r="E20">
-        <v>18.95856019038784</v>
+        <v>18.90431814389846</v>
       </c>
       <c r="F20">
-        <v>17.27397898555449</v>
+        <v>16.86813343999293</v>
       </c>
       <c r="G20">
-        <v>20.61348603683351</v>
+        <v>19.75053312817572</v>
       </c>
       <c r="H20">
-        <v>2.617667669973715</v>
+        <v>2.587090542686457</v>
       </c>
       <c r="J20">
-        <v>8.098200903440631</v>
+        <v>8.464456904678633</v>
       </c>
       <c r="K20">
-        <v>11.81183105245277</v>
+        <v>11.50294561334691</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.38558040388301</v>
       </c>
       <c r="M20">
-        <v>12.75641074288438</v>
+        <v>6.894694039615462</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.46161847231782</v>
+        <v>12.71859574579378</v>
       </c>
       <c r="P20">
-        <v>11.35808818244219</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.15341941570807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.45306205714665</v>
+      </c>
+      <c r="R20">
+        <v>11.39843139129578</v>
+      </c>
+      <c r="S20">
+        <v>12.88184111867449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.0755865726463</v>
+        <v>14.65059119237677</v>
       </c>
       <c r="C21">
-        <v>8.282318009832769</v>
+        <v>8.77761478528933</v>
       </c>
       <c r="D21">
-        <v>6.083342858544667</v>
+        <v>6.265234763218348</v>
       </c>
       <c r="E21">
-        <v>20.37378954496705</v>
+        <v>20.32931790810926</v>
       </c>
       <c r="F21">
-        <v>17.84141677757238</v>
+        <v>17.13596417443914</v>
       </c>
       <c r="G21">
-        <v>21.35488668594263</v>
+        <v>22.32339409176974</v>
       </c>
       <c r="H21">
-        <v>2.865219034391238</v>
+        <v>2.82105451283194</v>
       </c>
       <c r="J21">
-        <v>8.113615383813951</v>
+        <v>7.813016363808812</v>
       </c>
       <c r="K21">
-        <v>11.78453436462541</v>
+        <v>11.33013158165599</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.14714600984358</v>
       </c>
       <c r="M21">
-        <v>13.38298409915887</v>
+        <v>7.032043584825702</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.56704390562046</v>
+        <v>13.28004884395047</v>
       </c>
       <c r="P21">
-        <v>11.17883066878087</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.33276148260778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.52445268989814</v>
+      </c>
+      <c r="R21">
+        <v>11.2439885023192</v>
+      </c>
+      <c r="S21">
+        <v>12.83973866870208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.57315816018786</v>
+        <v>15.08555661397842</v>
       </c>
       <c r="C22">
-        <v>8.507009709701308</v>
+        <v>8.995954525977744</v>
       </c>
       <c r="D22">
-        <v>6.247855500222812</v>
+        <v>6.475480099610888</v>
       </c>
       <c r="E22">
-        <v>20.99781179106594</v>
+        <v>20.96128761157109</v>
       </c>
       <c r="F22">
-        <v>18.1758316521826</v>
+        <v>17.26443807767687</v>
       </c>
       <c r="G22">
-        <v>21.77442349448564</v>
+        <v>24.04384053332124</v>
       </c>
       <c r="H22">
-        <v>3.011747818859906</v>
+        <v>2.959049100026344</v>
       </c>
       <c r="J22">
-        <v>8.116156947119034</v>
+        <v>7.421260189663538</v>
       </c>
       <c r="K22">
-        <v>11.75344935602235</v>
+        <v>11.19681662641547</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.983304466394813</v>
       </c>
       <c r="M22">
-        <v>13.77745770078501</v>
+        <v>7.112412882247511</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.12444408465533</v>
+        <v>13.63028781474962</v>
       </c>
       <c r="P22">
-        <v>11.06436097847463</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.42801338074907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.05873787706625</v>
+      </c>
+      <c r="R22">
+        <v>11.14855290180271</v>
+      </c>
+      <c r="S22">
+        <v>12.77933220936778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.30958871558986</v>
+        <v>14.85975974802869</v>
       </c>
       <c r="C23">
-        <v>8.387825594320816</v>
+        <v>8.891725527828632</v>
       </c>
       <c r="D23">
-        <v>6.160628647256615</v>
+        <v>6.358314405738104</v>
       </c>
       <c r="E23">
-        <v>20.66698285662365</v>
+        <v>20.62380479019102</v>
       </c>
       <c r="F23">
-        <v>17.99698359249098</v>
+        <v>17.22206323091584</v>
       </c>
       <c r="G23">
-        <v>21.54980208417689</v>
+        <v>22.91312411503627</v>
       </c>
       <c r="H23">
-        <v>2.933836467895105</v>
+        <v>2.886205504960298</v>
       </c>
       <c r="J23">
-        <v>8.114433919823167</v>
+        <v>7.681818467066336</v>
       </c>
       <c r="K23">
-        <v>11.76929714280933</v>
+        <v>11.27942624446318</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.07699692057949</v>
       </c>
       <c r="M23">
-        <v>13.56835065997767</v>
+        <v>7.079889254921684</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.82899405726286</v>
+        <v>13.45135722075687</v>
       </c>
       <c r="P23">
-        <v>11.12533151247303</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.37643251941275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.77898050993503</v>
+      </c>
+      <c r="R23">
+        <v>11.19835287242644</v>
+      </c>
+      <c r="S23">
+        <v>12.83106535741974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.2675194105174</v>
+        <v>13.94034528585777</v>
       </c>
       <c r="C24">
-        <v>7.920350782902938</v>
+        <v>8.415116153439769</v>
       </c>
       <c r="D24">
-        <v>5.817671475133759</v>
+        <v>5.931143636572929</v>
       </c>
       <c r="E24">
-        <v>19.36530513172397</v>
+        <v>19.31148961604996</v>
       </c>
       <c r="F24">
-        <v>17.32805552481355</v>
+        <v>16.92123686022384</v>
       </c>
       <c r="G24">
-        <v>20.71505594050837</v>
+        <v>19.83231075991104</v>
       </c>
       <c r="H24">
-        <v>2.632211865084802</v>
+        <v>2.60157177825923</v>
       </c>
       <c r="J24">
-        <v>8.115799014038659</v>
+        <v>8.485859862510599</v>
       </c>
       <c r="K24">
-        <v>11.84520960487654</v>
+        <v>11.53312834077291</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.40772124563076</v>
       </c>
       <c r="M24">
-        <v>12.74507214320914</v>
+        <v>6.918212467022785</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.66523639659743</v>
+        <v>12.70783033962009</v>
       </c>
       <c r="P24">
-        <v>11.35903704897847</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.19719920215079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.6569037363629</v>
+      </c>
+      <c r="R24">
+        <v>11.39791189572066</v>
+      </c>
+      <c r="S24">
+        <v>12.92415373987887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.04971951624961</v>
+        <v>12.81045446328925</v>
       </c>
       <c r="C25">
-        <v>7.382745762765976</v>
+        <v>7.72661243197259</v>
       </c>
       <c r="D25">
-        <v>5.421353762771592</v>
+        <v>5.504073527956992</v>
       </c>
       <c r="E25">
-        <v>17.85833720408154</v>
+        <v>17.81961152001856</v>
       </c>
       <c r="F25">
-        <v>16.62730107432354</v>
+        <v>16.32432289471279</v>
       </c>
       <c r="G25">
-        <v>19.85166192288746</v>
+        <v>18.86942779433429</v>
       </c>
       <c r="H25">
-        <v>2.292299845836441</v>
+        <v>2.273665999983218</v>
       </c>
       <c r="J25">
-        <v>8.133112946392023</v>
+        <v>8.562166454667846</v>
       </c>
       <c r="K25">
-        <v>11.95839121918414</v>
+        <v>11.70060800506081</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.70517555530506</v>
       </c>
       <c r="M25">
-        <v>11.79110545230773</v>
+        <v>6.700758832198176</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.31544925745043</v>
+        <v>11.76565449047878</v>
       </c>
       <c r="P25">
-        <v>11.61747601532227</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.03692435377949</v>
+        <v>15.31439274985412</v>
+      </c>
+      <c r="R25">
+        <v>11.62963331479881</v>
+      </c>
+      <c r="S25">
+        <v>12.834174234815</v>
       </c>
     </row>
   </sheetData>
